--- a/Producto/Web/Casos de prueba/20.xlsx
+++ b/Producto/Web/Casos de prueba/20.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Se cambia el tipo de grafico a un grafico de lineas que se actualiza cada 10 segundos</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,9 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1">
       <c r="A7" s="4" t="s">
